--- a/finance_test.xlsx
+++ b/finance_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nils\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28726CF7-8ACD-4226-91DB-8FE026CB558A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A9FCCA-775D-4FEB-8BC6-5AE8464D7ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-1560" windowWidth="38620" windowHeight="21220" xr2:uid="{B3BB3B84-9BAE-4256-8CEC-785113C78BDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B3BB3B84-9BAE-4256-8CEC-785113C78BDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="493">
   <si>
     <t>CAGR in 1-5 Years</t>
   </si>
@@ -1561,6 +1561,9 @@
   </si>
   <si>
     <t>Chosen</t>
+  </si>
+  <si>
+    <t>Strong Buy</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1580,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.##"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
     <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="173" formatCode="_(#,##0.0%_);\(#,##0.0%\);_(&quot;–&quot;_)_%;_(@_)_%"/>
+    <numFmt numFmtId="172" formatCode="_(#,##0.0%_);\(#,##0.0%\);_(&quot;–&quot;_)_%;_(@_)_%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1639,7 +1642,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1691,12 +1694,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2407,7 +2404,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2680,7 +2677,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="8" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2698,143 +2695,23 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2843,6 +2720,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2875,9 +2767,129 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2917,7 +2929,7 @@
           <xdr:col>20</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>34925</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3005,10 +3017,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3119,7 +3127,7 @@
     <v t="i">0</v>
   </a>
   <a r="1">
-    <v>178.44</v>
+    <v>4.74</v>
   </a>
 </arrayData>
 </file>
@@ -3127,68 +3135,70 @@
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
 <rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1mou2&amp;q=XNAS%3aAAPL&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=azbwkr&amp;q=XNAS%3aQRTEA&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
   <rv s="1">
     <v>en-GB</v>
-    <v>a1mou2</v>
+    <v>azbwkr</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>0</v>
-    <v>APPLE INC. (XNAS:AAPL)</v>
+    <v>QURATE RETAIL, INC. (XNAS:QRTEA)</v>
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>178.49</v>
-    <v>124.17</v>
-    <v>1.2971999999999999</v>
-    <v>-0.57999999999999996</v>
-    <v>-3.4899999999999996E-3</v>
+    <v>5.19</v>
+    <v>0.8</v>
+    <v>1.8375999999999999</v>
+    <v>-3.85E-2</v>
+    <v>-1.1971000000000001E-2</v>
+    <v>-4.2830000000000007E-2</v>
+    <v>-1.03E-2</v>
     <v>USD</v>
-    <v>Apple Inc. (Apple) designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories and sells a range of related services. The Company’s products include iPhone, Mac, iPad, AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and accessories. The Company operates various platforms, including the App Store, which allows customers to discover and download applications and digital content, such as books, music, video, games and podcasts. Apple offers digital content through subscription-based services, including Apple Arcade, Apple Music, Apple News+, Apple TV+ and Apple Fitness+. Apple also offers a range of other services, such as AppleCare, iCloud, Apple Card and Apple Pay. Apple sells its products and resells third-party products in a range of markets, including directly to consumers, small and mid-sized businesses, and education, enterprise and government customers through its retail and online stores and its direct sales force.</v>
-    <v>164000</v>
+    <v>Qurate Retail, Inc. is engaged in the video and online commerce industries in North America, Europe and Asia. The Company operates through its subsidiaries, QVC, Inc. (QVC), which includes, HSN, Inc. (HSN), Zulily, LLC (Zulily), and Cornerstone Brands, Inc. (CBI). The Company's segments include QxH, QVC and CBI. Its QxH segment consists of QVC U.S. and HSN, which offers a variety of consumer products in the United States, primarily by means of its televised shopping programs and via the Internet through their websites and mobile applications (app). Its QVC segment offers a variety of consumer products in several foreign countries, primarily by means of its televised shopping programs and through its international Websites and mobile apps. Its CBI segment consists of a portfolio of aspirational home and apparel brands in the United States, that sells merchandise through brick-and-mortar retail locations as well as via the Internet through their Websites.</v>
+    <v>24600</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
-    <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
-    <v>166.7</v>
-    <v>Computers, Phones &amp; Household Electronics</v>
+    <v>12300 Liberty Blvd, ENGLEWOOD, CO, 80112-7009 US</v>
+    <v>0.9022</v>
+    <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45020.572203772659</v>
+    <v>45021.928531608595</v>
     <v>0</v>
-    <v>165.57</v>
-    <v>2619956700500</v>
-    <v>APPLE INC.</v>
-    <v>APPLE INC.</v>
-    <v>166.55</v>
-    <v>28.178999999999998</v>
-    <v>166.17</v>
-    <v>165.59</v>
-    <v>15821950000</v>
-    <v>AAPL</v>
-    <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>4008932</v>
-    <v>65119380</v>
-    <v>1977</v>
+    <v>0.84179999999999999</v>
+    <v>375228600</v>
+    <v>QURATE RETAIL, INC.</v>
+    <v>QURATE RETAIL, INC.</v>
+    <v>0.9</v>
+    <v>0.89890000000000003</v>
+    <v>0.86040000000000005</v>
+    <v>0.85009999999999997</v>
+    <v>382782700</v>
+    <v>QRTEA</v>
+    <v>QURATE RETAIL, INC. (XNAS:QRTEA)</v>
+    <v>4324195</v>
+    <v>10420942</v>
+    <v>2006</v>
   </rv>
   <rv s="2">
     <v>1</v>
   </rv>
   <rv s="3">
     <v>5</v>
-    <v>AAPL</v>
+    <v>QRTEA</v>
     <v>Daily</v>
-    <v>44655</v>
-    <v>44655</v>
+    <v>44657</v>
+    <v>44657</v>
     <v>0</v>
     <v>1</v>
-    <v>637846272000000000,638162118309679639,0</v>
+    <v>637848000000000000,638163313842326062,0</v>
     <v>0</v>
-    <v>a1mou2</v>
-    <v>XNAS:AAPL</v>
+    <v>azbwkr</v>
+    <v>XNAS:QRTEA</v>
     <v>1</v>
   </rv>
 </rvData>
@@ -3216,7 +3226,9 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3234,9 +3246,9 @@
     <k n="Name" t="s"/>
     <k n="Official name" t="s"/>
     <k n="Open"/>
-    <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3267,7 +3279,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3278,13 +3290,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3296,7 +3311,6 @@
       <v t="s">Volume average</v>
       <v t="s">Market cap</v>
       <v t="s">Beta</v>
-      <v t="s">P/E</v>
       <v t="s">Shares outstanding</v>
       <v t="s">Description</v>
       <v t="s">Employees</v>
@@ -3332,7 +3346,6 @@
     <spb s="3">
       <v>1</v>
       <v>2</v>
-      <v>2</v>
       <v>1</v>
       <v>3</v>
       <v>1</v>
@@ -3350,13 +3363,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="5">
       <v>10</v>
@@ -3386,7 +3405,6 @@
   </s>
   <s>
     <k n="Low" t="i"/>
-    <k n="P/E" t="i"/>
     <k n="Beta" t="i"/>
     <k n="High" t="i"/>
     <k n="Name" t="i"/>
@@ -3405,6 +3423,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3412,6 +3433,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="Date" t="i"/>
@@ -3784,7 +3808,7 @@
   <dimension ref="A1:AA62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -3809,23 +3833,29 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="153" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="127" t="e" vm="1">
+      <c r="C2" s="153"/>
+      <c r="D2" s="154" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="156"/>
+      <c r="H2" s="171" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="170" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
       <c r="E4" s="94"/>
       <c r="F4" s="86"/>
       <c r="G4" s="95"/>
@@ -3843,27 +3873,27 @@
       <c r="U4" s="43"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
       <c r="D5" s="88" t="s">
         <v>484</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="167" t="s">
         <v>485</v>
       </c>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107" t="s">
+      <c r="F5" s="167"/>
+      <c r="G5" s="167" t="s">
         <v>486</v>
       </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107" t="s">
+      <c r="H5" s="167"/>
+      <c r="I5" s="167" t="s">
         <v>487</v>
       </c>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107" t="s">
+      <c r="J5" s="167"/>
+      <c r="K5" s="167" t="s">
         <v>488</v>
       </c>
-      <c r="L5" s="107"/>
+      <c r="L5" s="167"/>
       <c r="M5" s="53"/>
       <c r="N5" s="50"/>
       <c r="O5" s="50"/>
@@ -3871,144 +3901,144 @@
         <v>491</v>
       </c>
       <c r="Q5" s="53"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
       <c r="U5" s="53"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="122"/>
+      <c r="B6" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="168"/>
       <c r="D6" s="101">
-        <v>0.15</v>
-      </c>
-      <c r="E6" s="116">
-        <v>0.12</v>
-      </c>
-      <c r="F6" s="117"/>
-      <c r="G6" s="116">
-        <v>0.09</v>
-      </c>
-      <c r="H6" s="117"/>
-      <c r="I6" s="116">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J6" s="117"/>
-      <c r="K6" s="116">
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="160">
         <v>0.05</v>
       </c>
-      <c r="L6" s="117"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="160">
+        <v>0.03</v>
+      </c>
+      <c r="H6" s="161"/>
+      <c r="I6" s="160">
+        <v>-0.01</v>
+      </c>
+      <c r="J6" s="161"/>
+      <c r="K6" s="160">
+        <v>-0.05</v>
+      </c>
+      <c r="L6" s="161"/>
       <c r="M6" s="53"/>
       <c r="N6" s="99" t="s">
         <v>489</v>
       </c>
       <c r="O6" s="104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P6" s="100" cm="1">
         <f t="array" ref="P6">_xlfn.SWITCH(O6,1,K6,2,I6,3,G6,4,E6,5,D6)</f>
-        <v>0.12</v>
+        <v>-0.05</v>
       </c>
       <c r="Q6" s="53"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="115"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
       <c r="U6" s="53"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="121"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="101">
-        <v>0.31</v>
-      </c>
-      <c r="E7" s="116">
-        <v>0.27</v>
-      </c>
-      <c r="F7" s="117"/>
-      <c r="G7" s="116">
-        <v>0.25</v>
-      </c>
-      <c r="H7" s="117"/>
-      <c r="I7" s="116">
-        <v>0.22</v>
-      </c>
-      <c r="J7" s="117"/>
-      <c r="K7" s="116">
-        <v>0.19</v>
-      </c>
-      <c r="L7" s="117"/>
+        <v>0.125</v>
+      </c>
+      <c r="E7" s="162">
+        <v>0.105</v>
+      </c>
+      <c r="F7" s="163"/>
+      <c r="G7" s="162">
+        <v>0.09</v>
+      </c>
+      <c r="H7" s="163"/>
+      <c r="I7" s="162">
+        <v>0.06</v>
+      </c>
+      <c r="J7" s="163"/>
+      <c r="K7" s="162">
+        <v>0.03</v>
+      </c>
+      <c r="L7" s="163"/>
       <c r="M7" s="53"/>
       <c r="N7" s="99" t="s">
         <v>489</v>
       </c>
       <c r="O7" s="104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P7" s="100" cm="1">
         <f t="array" ref="P7">_xlfn.SWITCH(O7,1,K7,2,I7,3,G7,4,E7,5,D7)</f>
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="Q7" s="53"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
       <c r="U7" s="53"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="142"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="102">
         <v>5</v>
       </c>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
       <c r="O8" s="85"/>
       <c r="P8" s="100"/>
       <c r="Q8" s="96"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
       <c r="U8" s="53"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="109"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="103">
-        <v>5.5E-2</v>
-      </c>
-      <c r="E9" s="110">
-        <v>0.06</v>
-      </c>
-      <c r="F9" s="111"/>
-      <c r="G9" s="110">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H9" s="111"/>
-      <c r="I9" s="110">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="J9" s="111"/>
-      <c r="K9" s="110">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="L9" s="111"/>
+      <c r="E9" s="130">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F9" s="131"/>
+      <c r="G9" s="130">
+        <v>0.09</v>
+      </c>
+      <c r="H9" s="131"/>
+      <c r="I9" s="130">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J9" s="131"/>
+      <c r="K9" s="130">
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="131"/>
       <c r="N9" s="99" t="s">
         <v>489</v>
       </c>
       <c r="O9" s="105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P9" s="100" cm="1">
         <f t="array" ref="P9">_xlfn.SWITCH(O9,1,K9,2,I9,3,G9,4,E9,5,D9)</f>
-        <v>6.5000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="Q9" s="23"/>
       <c r="U9" s="53"/>
@@ -4031,28 +4061,28 @@
       <c r="U11" s="53"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="166">
-        <v>1.75</v>
+      <c r="C12" s="133"/>
+      <c r="D12" s="109">
+        <v>1.8</v>
       </c>
       <c r="I12" s="53"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
       <c r="O12" s="97"/>
       <c r="P12" s="98"/>
       <c r="Q12" s="23"/>
       <c r="U12" s="53"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="106">
-        <v>0.16500000000000001</v>
+      <c r="C13" s="117"/>
+      <c r="D13" s="110">
+        <v>0.27</v>
       </c>
       <c r="E13" s="23"/>
       <c r="I13" s="53"/>
@@ -4091,21 +4121,21 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="F16" s="151" t="str" cm="1">
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="F16" s="137" t="str" cm="1">
         <f t="array" ref="F16">_FV(D2,"Description")</f>
-        <v>Apple Inc. (Apple) designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories and sells a range of related services. The Company’s products include iPhone, Mac, iPad, AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and accessories. The Company operates various platforms, including the App Store, which allows customers to discover and download applications and digital content, such as books, music, video, games and podcasts. Apple offers digital content through subscription-based services, including Apple Arcade, Apple Music, Apple News+, Apple TV+ and Apple Fitness+. Apple also offers a range of other services, such as AppleCare, iCloud, Apple Card and Apple Pay. Apple sells its products and resells third-party products in a range of markets, including directly to consumers, small and mid-sized businesses, and education, enterprise and government customers through its retail and online stores and its direct sales force.</v>
-      </c>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+        <v>Qurate Retail, Inc. is engaged in the video and online commerce industries in North America, Europe and Asia. The Company operates through its subsidiaries, QVC, Inc. (QVC), which includes, HSN, Inc. (HSN), Zulily, LLC (Zulily), and Cornerstone Brands, Inc. (CBI). The Company's segments include QxH, QVC and CBI. Its QxH segment consists of QVC U.S. and HSN, which offers a variety of consumer products in the United States, primarily by means of its televised shopping programs and via the Internet through their websites and mobile applications (app). Its QVC segment offers a variety of consumer products in several foreign countries, primarily by means of its televised shopping programs and through its international Websites and mobile apps. Its CBI segment consists of a portfolio of aspirational home and apparel brands in the United States, that sells merchandise through brick-and-mortar retail locations as well as via the Internet through their Websites.</v>
+      </c>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
       <c r="N16" s="60"/>
       <c r="O16" s="43"/>
       <c r="P16" s="43"/>
@@ -4116,124 +4146,124 @@
       <c r="V16" s="43"/>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="121"/>
+      <c r="C17" s="133"/>
       <c r="D17" s="44" t="str" cm="1">
         <f t="array" ref="D17">_FV(D2,"Official name",TRUE)</f>
-        <v>APPLE INC.</v>
-      </c>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="S17" s="115"/>
-      <c r="T17" s="115"/>
-      <c r="U17" s="115"/>
+        <v>QURATE RETAIL, INC.</v>
+      </c>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="119"/>
+      <c r="U17" s="119"/>
       <c r="V17" s="61"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="121"/>
+      <c r="C18" s="133"/>
       <c r="D18" s="29" t="str" cm="1">
         <f t="array" ref="D18">_FV(D2,"Ticker symbol",TRUE)</f>
-        <v>AAPL</v>
-      </c>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
+        <v>QRTEA</v>
+      </c>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="119"/>
       <c r="Q18" s="62"/>
-      <c r="S18" s="115"/>
-      <c r="T18" s="115"/>
-      <c r="U18" s="115"/>
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
       <c r="V18" s="62"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="121"/>
+      <c r="C19" s="133"/>
       <c r="D19" s="30" cm="1">
         <f t="array" ref="D19">_FV(D2,"Price")</f>
-        <v>165.59</v>
-      </c>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="115"/>
-      <c r="P19" s="115"/>
-      <c r="S19" s="115"/>
-      <c r="T19" s="115"/>
-      <c r="U19" s="115"/>
+        <v>0.86040000000000005</v>
+      </c>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="119"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="119"/>
+      <c r="U19" s="119"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="133" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="121"/>
+      <c r="C20" s="133"/>
       <c r="D20" s="31" cm="1">
         <f t="array" ref="D20">_FV(D2,"Market cap",TRUE)</f>
-        <v>2619956700500</v>
-      </c>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="151"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="S20" s="115"/>
-      <c r="T20" s="115"/>
-      <c r="U20" s="115"/>
+        <v>375228600</v>
+      </c>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="119"/>
+      <c r="S20" s="119"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="119"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="119"/>
+      <c r="C21" s="116"/>
       <c r="D21" s="32">
         <f>'Helper Data'!N18</f>
-        <v>6.0407999601378097E-2</v>
+        <v>6.0404829570084799E-2</v>
       </c>
       <c r="E21" s="11"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="115"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
       <c r="Q21" s="63"/>
-      <c r="S21" s="115"/>
-      <c r="T21" s="115"/>
-      <c r="U21" s="115"/>
+      <c r="S21" s="119"/>
+      <c r="T21" s="119"/>
+      <c r="U21" s="119"/>
       <c r="V21" s="63"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4243,22 +4273,22 @@
       <c r="C22" s="22"/>
       <c r="D22" s="34" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">(D19-_xlfn.STOCKHISTORY(D18,TODAY()-365,,0,0,1))/_xlfn.STOCKHISTORY(D18,TODAY()-365,,0,0,1)</f>
-        <v>-7.2013001569154869E-2</v>
+        <v>-0.81848101265822781</v>
       </c>
       <c r="E22" s="11"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="N22" s="115"/>
-      <c r="O22" s="115"/>
-      <c r="P22" s="115"/>
-      <c r="S22" s="115"/>
-      <c r="T22" s="115"/>
-      <c r="U22" s="115"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="S22" s="119"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="119"/>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
@@ -4267,41 +4297,41 @@
       <c r="C23" s="22"/>
       <c r="D23" s="33" cm="1">
         <f t="array" ref="D23">_FV(D2,"Shares outstanding",TRUE)</f>
-        <v>15821950000</v>
+        <v>382782700</v>
       </c>
       <c r="E23" s="11"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="N23" s="115"/>
-      <c r="O23" s="115"/>
-      <c r="P23" s="115"/>
-      <c r="S23" s="115"/>
-      <c r="T23" s="115"/>
-      <c r="U23" s="115"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="137"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="119"/>
+      <c r="S23" s="119"/>
+      <c r="T23" s="119"/>
+      <c r="U23" s="119"/>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="151"/>
-      <c r="N24" s="115"/>
-      <c r="O24" s="115"/>
-      <c r="P24" s="115"/>
-      <c r="S24" s="115"/>
-      <c r="T24" s="115"/>
-      <c r="U24" s="115"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="137"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="119"/>
+      <c r="S24" s="119"/>
+      <c r="T24" s="119"/>
+      <c r="U24" s="119"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
@@ -4393,24 +4423,24 @@
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
-      <c r="R27" s="155" t="s">
+      <c r="R27" s="120" t="s">
         <v>148</v>
       </c>
-      <c r="S27" s="155"/>
-      <c r="T27" s="155"/>
-      <c r="U27" s="155"/>
-      <c r="W27" s="152" t="s">
+      <c r="S27" s="120"/>
+      <c r="T27" s="120"/>
+      <c r="U27" s="120"/>
+      <c r="W27" s="112" t="s">
         <v>417</v>
       </c>
-      <c r="X27" s="153"/>
-      <c r="Y27" s="153"/>
-      <c r="Z27" s="154"/>
+      <c r="X27" s="113"/>
+      <c r="Y27" s="113"/>
+      <c r="Z27" s="114"/>
       <c r="AA27" s="87"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="148"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="150"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="136"/>
       <c r="E28" s="12" t="str">
         <f>'Financial Statements'!B2</f>
         <v>TTM</v>
@@ -4459,32 +4489,31 @@
         <f>YEAR('Financial Statements'!M2)</f>
         <v>2011</v>
       </c>
-      <c r="R28" s="156" t="s">
+      <c r="R28" s="121" t="s">
         <v>149</v>
       </c>
-      <c r="S28" s="157"/>
-      <c r="T28" s="158"/>
+      <c r="S28" s="122"/>
+      <c r="T28" s="123"/>
       <c r="U28" s="51" t="str">
         <f>IF(D20&gt;5000000000,"Large","Small")</f>
-        <v>Large</v>
-      </c>
-      <c r="W28" s="112" t="s">
+        <v>Small</v>
+      </c>
+      <c r="W28" s="164" t="s">
         <v>419</v>
       </c>
-      <c r="X28" s="113"/>
-      <c r="Y28" s="113"/>
-      <c r="Z28" s="114"/>
+      <c r="X28" s="165"/>
+      <c r="Y28" s="165"/>
+      <c r="Z28" s="166"/>
       <c r="AA28" s="50"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="120" t="s">
+      <c r="B29" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
       <c r="E29" s="16">
-        <f>'Financial Statements'!B3</f>
-        <v>378323000000</v>
+        <v>12106000000</v>
       </c>
       <c r="F29" s="16">
         <f>'Financial Statements'!C3</f>
@@ -4530,20 +4559,20 @@
         <f>'Financial Statements'!M3</f>
         <v>108249000000</v>
       </c>
-      <c r="R29" s="159" t="s">
+      <c r="R29" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="S29" s="160"/>
-      <c r="T29" s="161"/>
+      <c r="S29" s="125"/>
+      <c r="T29" s="126"/>
       <c r="U29" s="47">
         <f>IF('Financial Statements'!B15=0,100,IF('Financial Statements'!B12&lt;0,0,'Financial Statements'!B12/'Financial Statements'!B15))</f>
         <v>43.281377267678636</v>
       </c>
-      <c r="W29" s="118" t="s">
+      <c r="W29" s="115" t="s">
         <v>420</v>
       </c>
-      <c r="X29" s="119"/>
-      <c r="Y29" s="109"/>
+      <c r="X29" s="116"/>
+      <c r="Y29" s="117"/>
       <c r="Z29" s="89">
         <f>'Financial Statements'!B44/'Financial Statements'!B55</f>
         <v>1.0378115386179136</v>
@@ -4551,14 +4580,13 @@
       <c r="AA29" s="50"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="120" t="s">
+      <c r="B30" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="133"/>
       <c r="E30" s="16">
-        <f>'Financial Statements'!B12</f>
-        <v>116903000000</v>
+        <v>428000000</v>
       </c>
       <c r="F30" s="16">
         <f>'Financial Statements'!C12</f>
@@ -4604,20 +4632,20 @@
         <f>'Financial Statements'!M12</f>
         <v>33790000000</v>
       </c>
-      <c r="R30" s="162" t="s">
+      <c r="R30" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="S30" s="163"/>
-      <c r="T30" s="164"/>
+      <c r="S30" s="128"/>
+      <c r="T30" s="129"/>
       <c r="U30" s="52" t="str">
         <f>IF(U28="Large",VLOOKUP(U29,'Helper Data'!A3:F17,5),IF(U28="Small", VLOOKUP(U29,'Helper Data'!C3:F17,3), 0))</f>
         <v>Aaa/AAA</v>
       </c>
-      <c r="W30" s="118" t="s">
+      <c r="W30" s="115" t="s">
         <v>421</v>
       </c>
-      <c r="X30" s="119"/>
-      <c r="Y30" s="109"/>
+      <c r="X30" s="116"/>
+      <c r="Y30" s="117"/>
       <c r="Z30" s="89">
         <f>('Financial Statements'!B44-'Financial Statements'!B42)/'Financial Statements'!B55</f>
         <v>0.99799422662528625</v>
@@ -4625,14 +4653,14 @@
       <c r="AA30" s="50"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="120" t="s">
+      <c r="B31" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
       <c r="E31" s="15">
-        <f>'Financial Statements'!B13</f>
-        <v>0.30580000000000002</v>
+        <f>E30/E29</f>
+        <v>3.5354369734016192E-2</v>
       </c>
       <c r="F31" s="15">
         <f>'Financial Statements'!C13</f>
@@ -4678,27 +4706,26 @@
         <f>'Financial Statements'!M13</f>
         <v>0.31219999999999998</v>
       </c>
-      <c r="R31" s="115"/>
-      <c r="S31" s="115"/>
-      <c r="T31" s="115"/>
+      <c r="R31" s="119"/>
+      <c r="S31" s="119"/>
+      <c r="T31" s="119"/>
       <c r="U31" s="53"/>
-      <c r="W31" s="112" t="s">
+      <c r="W31" s="164" t="s">
         <v>422</v>
       </c>
-      <c r="X31" s="113"/>
-      <c r="Y31" s="113"/>
-      <c r="Z31" s="114"/>
+      <c r="X31" s="165"/>
+      <c r="Y31" s="165"/>
+      <c r="Z31" s="166"/>
       <c r="AA31" s="50"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="120" t="s">
+      <c r="B32" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="133"/>
       <c r="E32" s="15">
-        <f>'Financial Statements'!B20</f>
-        <v>0.1351</v>
+        <v>0.3</v>
       </c>
       <c r="F32" s="15">
         <f>'Financial Statements'!C20</f>
@@ -4750,11 +4777,11 @@
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
       <c r="U32" s="54"/>
-      <c r="W32" s="118" t="s">
+      <c r="W32" s="115" t="s">
         <v>423</v>
       </c>
-      <c r="X32" s="119"/>
-      <c r="Y32" s="109"/>
+      <c r="X32" s="116"/>
+      <c r="Y32" s="117"/>
       <c r="Z32" s="89">
         <f>'Financial Statements'!B12/'Financial Statements'!B15</f>
         <v>43.281377267678636</v>
@@ -4762,14 +4789,13 @@
       <c r="AA32" s="50"/>
     </row>
     <row r="33" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="120" t="s">
+      <c r="B33" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="133"/>
       <c r="E33" s="16">
-        <f>'Financial Statements'!B74</f>
-        <v>71932000000</v>
+        <v>412000000</v>
       </c>
       <c r="F33" s="16">
         <f>'Financial Statements'!C74</f>
@@ -4815,32 +4841,31 @@
         <f>'Financial Statements'!M74</f>
         <v>76615000000</v>
       </c>
-      <c r="R33" s="130" t="s">
+      <c r="R33" s="157" t="s">
         <v>199</v>
       </c>
-      <c r="S33" s="131"/>
-      <c r="T33" s="132"/>
+      <c r="S33" s="158"/>
+      <c r="T33" s="159"/>
       <c r="U33" s="55">
         <f>P47</f>
-        <v>154209033568.18408</v>
-      </c>
-      <c r="W33" s="112" t="s">
+        <v>210316407.53660104</v>
+      </c>
+      <c r="W33" s="164" t="s">
         <v>424</v>
       </c>
-      <c r="X33" s="113"/>
-      <c r="Y33" s="113"/>
-      <c r="Z33" s="114"/>
+      <c r="X33" s="165"/>
+      <c r="Y33" s="165"/>
+      <c r="Z33" s="166"/>
       <c r="AA33" s="50"/>
     </row>
     <row r="34" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="120" t="s">
+      <c r="B34" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="133"/>
       <c r="E34" s="16">
-        <f>'Financial Statements'!B59</f>
-        <v>122798000000</v>
+        <v>8217000000</v>
       </c>
       <c r="F34" s="16">
         <f>'Financial Statements'!C59</f>
@@ -4893,13 +4918,13 @@
       <c r="T34" s="14"/>
       <c r="U34" s="56">
         <f>P50</f>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="W34" s="118" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="W34" s="115" t="s">
         <v>425</v>
       </c>
-      <c r="X34" s="119"/>
-      <c r="Y34" s="109"/>
+      <c r="X34" s="116"/>
+      <c r="Y34" s="117"/>
       <c r="Z34" s="89">
         <f>'Financial Statements'!B63/'Financial Statements'!B51</f>
         <v>0.81129669903014501</v>
@@ -4907,14 +4932,13 @@
       <c r="AA34" s="50"/>
     </row>
     <row r="35" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="120" t="s">
+      <c r="B35" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="133"/>
       <c r="E35" s="16">
-        <f>'Financial Statements'!B40</f>
-        <v>63913000000</v>
+        <v>1285000000</v>
       </c>
       <c r="F35" s="16">
         <f>'Financial Statements'!C40</f>
@@ -4960,20 +4984,20 @@
         <f>'Financial Statements'!M40</f>
         <v>25952000000</v>
       </c>
-      <c r="R35" s="118" t="s">
+      <c r="R35" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="S35" s="119"/>
-      <c r="T35" s="109"/>
+      <c r="S35" s="116"/>
+      <c r="T35" s="117"/>
       <c r="U35" s="57">
         <f>U33/(U34-'Helper Data'!I6)</f>
-        <v>3309206728930.9888</v>
-      </c>
-      <c r="W35" s="118" t="s">
+        <v>2577406955.1054049</v>
+      </c>
+      <c r="W35" s="115" t="s">
         <v>426</v>
       </c>
-      <c r="X35" s="119"/>
-      <c r="Y35" s="109"/>
+      <c r="X35" s="116"/>
+      <c r="Y35" s="117"/>
       <c r="Z35" s="89">
         <f>'Financial Statements'!B63/('Financial Statements'!B51-'Financial Statements'!B63)</f>
         <v>4.2993243618973471</v>
@@ -4981,14 +5005,14 @@
       <c r="AA35" s="50"/>
     </row>
     <row r="36" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="120" t="s">
+      <c r="B36" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="133"/>
       <c r="E36" s="16">
         <f>E33+E34-E35</f>
-        <v>130817000000</v>
+        <v>7344000000</v>
       </c>
       <c r="F36" s="16">
         <f t="shared" ref="F36:P36" si="1">F33+F34-F35</f>
@@ -5034,32 +5058,32 @@
         <f t="shared" si="1"/>
         <v>50663000000</v>
       </c>
-      <c r="R36" s="118" t="s">
+      <c r="R36" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="S36" s="119"/>
-      <c r="T36" s="109"/>
+      <c r="S36" s="116"/>
+      <c r="T36" s="117"/>
       <c r="U36" s="57">
         <f>U35*O51</f>
-        <v>1762900581421.2625</v>
-      </c>
-      <c r="W36" s="112" t="s">
+        <v>993701955.6698904</v>
+      </c>
+      <c r="W36" s="164" t="s">
         <v>427</v>
       </c>
-      <c r="X36" s="113"/>
-      <c r="Y36" s="113"/>
-      <c r="Z36" s="114"/>
+      <c r="X36" s="165"/>
+      <c r="Y36" s="165"/>
+      <c r="Z36" s="166"/>
       <c r="AA36" s="50"/>
     </row>
     <row r="37" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="143" t="s">
+      <c r="B37" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="140"/>
       <c r="E37" s="17">
         <f>E29/E36</f>
-        <v>2.8920018040468745</v>
+        <v>1.6484204793028323</v>
       </c>
       <c r="F37" s="17">
         <f t="shared" ref="F37:P37" si="2">F29/F36</f>
@@ -5112,13 +5136,13 @@
       <c r="T37" s="14"/>
       <c r="U37" s="57">
         <f>SUM(F52:P52)</f>
-        <v>850192999884.427</v>
-      </c>
-      <c r="W37" s="118" t="s">
+        <v>1690290697.7499084</v>
+      </c>
+      <c r="W37" s="115" t="s">
         <v>428</v>
       </c>
-      <c r="X37" s="119"/>
-      <c r="Y37" s="109"/>
+      <c r="X37" s="116"/>
+      <c r="Y37" s="117"/>
       <c r="Z37" s="89">
         <f>'Financial Statements'!B80/'Financial Statements'!B3</f>
         <v>0.2657914004699688</v>
@@ -5126,20 +5150,20 @@
       <c r="AA37" s="50"/>
     </row>
     <row r="38" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R38" s="118" t="s">
+      <c r="R38" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="S38" s="119"/>
-      <c r="T38" s="109"/>
+      <c r="S38" s="116"/>
+      <c r="T38" s="117"/>
       <c r="U38" s="57">
         <f>U37+U36</f>
-        <v>2613093581305.6895</v>
-      </c>
-      <c r="W38" s="118" t="s">
+        <v>2683992653.4197989</v>
+      </c>
+      <c r="W38" s="115" t="s">
         <v>429</v>
       </c>
-      <c r="X38" s="119"/>
-      <c r="Y38" s="109"/>
+      <c r="X38" s="116"/>
+      <c r="Y38" s="117"/>
       <c r="Z38" s="89">
         <f>'Financial Statements'!B80/'Financial Statements'!B51</f>
         <v>0.26379164250992287</v>
@@ -5164,17 +5188,17 @@
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
-      <c r="R39" s="118" t="s">
+      <c r="R39" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="S39" s="119"/>
-      <c r="T39" s="109"/>
+      <c r="S39" s="116"/>
+      <c r="T39" s="117"/>
       <c r="U39" s="58"/>
-      <c r="W39" s="118" t="s">
+      <c r="W39" s="115" t="s">
         <v>430</v>
       </c>
-      <c r="X39" s="119"/>
-      <c r="Y39" s="109"/>
+      <c r="X39" s="116"/>
+      <c r="Y39" s="117"/>
       <c r="Z39" s="89">
         <f>'Financial Statements'!B28/'Financial Statements'!B51</f>
         <v>0.31367477196471061</v>
@@ -5182,9 +5206,9 @@
       <c r="AA39" s="50"/>
     </row>
     <row r="40" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="145"/>
-      <c r="C40" s="146"/>
-      <c r="D40" s="147"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="108"/>
       <c r="E40" s="12" t="s">
         <v>49</v>
       </c>
@@ -5236,15 +5260,13 @@
       </c>
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
-      <c r="U40" s="57">
-        <f>(('Financial Statements'!B72)+('Financial Statements'!B59)*Main!U8)</f>
-        <v>71932000000</v>
-      </c>
-      <c r="W40" s="118" t="s">
+      <c r="U40" s="53"/>
+      <c r="V40" s="57"/>
+      <c r="W40" s="115" t="s">
         <v>431</v>
       </c>
-      <c r="X40" s="119"/>
-      <c r="Y40" s="109"/>
+      <c r="X40" s="116"/>
+      <c r="Y40" s="117"/>
       <c r="Z40" s="89">
         <f>'Financial Statements'!B80/'Financial Statements'!B74</f>
         <v>1.3979174776177501</v>
@@ -5252,144 +5274,145 @@
       <c r="AA40" s="50"/>
     </row>
     <row r="41" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="118" t="s">
+      <c r="B41" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="119"/>
-      <c r="D41" s="109"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="117"/>
       <c r="E41" s="16">
         <f>E29</f>
-        <v>378323000000</v>
+        <v>12106000000</v>
       </c>
       <c r="F41" s="16" cm="1">
         <f t="array" ref="F41">E41*(1+_xlfn.SWITCH($O$6,5,$D$6,4,$E$6,3,$G$6,2,$I$6,1,$K$6))</f>
-        <v>423721760000.00006</v>
+        <v>11500700000</v>
       </c>
       <c r="G41" s="16" cm="1">
         <f t="array" ref="G41">F41*(1+_xlfn.SWITCH($O$6,5,$D$6,4,$E$6,3,$G$6,2,$I$6,1,$K$6))</f>
-        <v>474568371200.00012</v>
+        <v>10925665000</v>
       </c>
       <c r="H41" s="16" cm="1">
         <f t="array" ref="H41">G41*(1+_xlfn.SWITCH($O$6,5,$D$6,4,$E$6,3,$G$6,2,$I$6,1,$K$6))</f>
-        <v>531516575744.00018</v>
+        <v>10379381750</v>
       </c>
       <c r="I41" s="16" cm="1">
         <f t="array" ref="I41">H41*(1+_xlfn.SWITCH($O$6,5,$D$6,4,$E$6,3,$G$6,2,$I$6,1,$K$6))</f>
-        <v>595298564833.28027</v>
+        <v>9860412662.5</v>
       </c>
       <c r="J41" s="16" cm="1">
         <f t="array" ref="J41">I41*(1+_xlfn.SWITCH($O$6,5,$D$6,4,$E$6,3,$G$6,2,$I$6,1,$K$6))</f>
-        <v>666734392613.27393</v>
+        <v>9367392029.375</v>
       </c>
       <c r="K41" s="16">
         <f>J41*(1+$D$6-(($D$6-'Helper Data'!$I$6)/5))</f>
-        <v>749196102291.68359</v>
+        <v>10001377121.9231</v>
       </c>
       <c r="L41" s="16">
         <f>K41*(1+$D$6-(($D$6-'Helper Data'!$I$6)/5)*2)</f>
-        <v>822137834810.80188</v>
+        <v>10555053359.392763</v>
       </c>
       <c r="M41" s="16">
         <f>L41*(1+$D$6-(($D$6-'Helper Data'!$I$6)/5)*3)</f>
-        <v>880542506595.76123</v>
+        <v>11009342855.981028</v>
       </c>
       <c r="N41" s="16">
         <f>M41*(1+$D$6-(($D$6-'Helper Data'!$I$6)/5)*4)</f>
-        <v>919920367490.72351</v>
+        <v>11347549868.516766</v>
       </c>
       <c r="O41" s="16">
         <f>N41*(1+$D$6-(($D$6-'Helper Data'!$I$6)/5)*5)</f>
-        <v>936846902252.55286</v>
+        <v>11556344786.097473</v>
       </c>
       <c r="P41" s="36">
         <f>O41*(1+'Helper Data'!$I$6)</f>
-        <v>954084885253.99976</v>
-      </c>
-      <c r="R41" s="118" t="s">
+        <v>11768981530.161667</v>
+      </c>
+      <c r="R41" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="S41" s="119"/>
-      <c r="T41" s="109"/>
-      <c r="U41" s="57">
-        <f>U38*(1-U39)+U40*U39</f>
-        <v>2613093581305.6895</v>
-      </c>
-      <c r="W41" s="112" t="s">
+      <c r="S41" s="116"/>
+      <c r="T41" s="117"/>
+      <c r="U41" s="111">
+        <f>U38</f>
+        <v>2683992653.4197989</v>
+      </c>
+      <c r="V41" s="57"/>
+      <c r="W41" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="X41" s="113"/>
-      <c r="Y41" s="113"/>
-      <c r="Z41" s="114"/>
+      <c r="X41" s="165"/>
+      <c r="Y41" s="165"/>
+      <c r="Z41" s="166"/>
       <c r="AA41" s="50"/>
     </row>
     <row r="42" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="118" t="s">
+      <c r="B42" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="119"/>
-      <c r="D42" s="109"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="117"/>
       <c r="E42" s="16">
         <f t="shared" ref="E42" si="4">E30</f>
-        <v>116903000000</v>
+        <v>428000000</v>
       </c>
       <c r="F42" s="16">
         <f>F41*F43</f>
-        <v>114404875200.00003</v>
+        <v>345021000</v>
       </c>
       <c r="G42" s="16">
         <f t="shared" ref="G42:P42" si="5">G41*G43</f>
-        <v>128133460224.00005</v>
+        <v>327769950</v>
       </c>
       <c r="H42" s="16">
         <f t="shared" si="5"/>
-        <v>143509475450.88007</v>
+        <v>311381452.5</v>
       </c>
       <c r="I42" s="16">
         <f t="shared" si="5"/>
-        <v>160730612504.98569</v>
+        <v>295812379.875</v>
       </c>
       <c r="J42" s="16">
         <f t="shared" si="5"/>
-        <v>180018286005.58398</v>
+        <v>281021760.88124996</v>
       </c>
       <c r="K42" s="16">
         <f t="shared" si="5"/>
-        <v>202282947618.75458</v>
+        <v>300041313.65769297</v>
       </c>
       <c r="L42" s="16">
         <f t="shared" si="5"/>
-        <v>221977215398.91653</v>
+        <v>316651600.78178287</v>
       </c>
       <c r="M42" s="16">
         <f t="shared" si="5"/>
-        <v>237746476780.85556</v>
+        <v>330280285.67943084</v>
       </c>
       <c r="N42" s="16">
         <f t="shared" si="5"/>
-        <v>248378499222.49536</v>
+        <v>340426496.05550295</v>
       </c>
       <c r="O42" s="16">
         <f t="shared" si="5"/>
-        <v>252948663608.1893</v>
+        <v>346690343.58292419</v>
       </c>
       <c r="P42" s="36">
         <f t="shared" si="5"/>
-        <v>257602919018.57996</v>
-      </c>
-      <c r="R42" s="118" t="s">
+        <v>353069445.90485001</v>
+      </c>
+      <c r="R42" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="S42" s="119"/>
-      <c r="T42" s="109"/>
+      <c r="S42" s="116"/>
+      <c r="T42" s="117"/>
       <c r="U42" s="57">
-        <f>'Financial Statements'!B59</f>
-        <v>122798000000</v>
-      </c>
-      <c r="W42" s="118" t="s">
+        <f>E34</f>
+        <v>8217000000</v>
+      </c>
+      <c r="W42" s="115" t="s">
         <v>433</v>
       </c>
-      <c r="X42" s="119"/>
-      <c r="Y42" s="109"/>
+      <c r="X42" s="116"/>
+      <c r="Y42" s="117"/>
       <c r="Z42" s="89">
         <f>'Financial Statements'!B3/'Financial Statements'!B42</f>
         <v>64.384445200816884</v>
@@ -5397,73 +5420,73 @@
       <c r="AA42" s="50"/>
     </row>
     <row r="43" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="118" t="s">
+      <c r="B43" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="119"/>
-      <c r="D43" s="109"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="117"/>
       <c r="E43" s="18">
         <f>E31</f>
-        <v>0.30580000000000002</v>
+        <v>3.5354369734016192E-2</v>
       </c>
       <c r="F43" s="18" cm="1">
         <f t="array" ref="F43">IF(F40&gt;$D$8, _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7), _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-((_xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-E43)/$D$8)*($D$8-F40))</f>
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="G43" s="18" cm="1">
         <f t="array" ref="G43">IF(G40&gt;$D$8, _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7), _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-((_xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-F43)/$D$8)*($D$8-G40))</f>
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="H43" s="18" cm="1">
         <f t="array" ref="H43">IF(H40&gt;$D$8, _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7), _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-((_xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-G43)/$D$8)*($D$8-H40))</f>
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="I43" s="18" cm="1">
         <f t="array" ref="I43">IF(I40&gt;$D$8, _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7), _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-((_xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-H43)/$D$8)*($D$8-I40))</f>
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="J43" s="18" cm="1">
         <f t="array" ref="J43">IF(J40&gt;$D$8, _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7), _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-((_xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-I43)/$D$8)*($D$8-J40))</f>
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="K43" s="18" cm="1">
         <f t="array" ref="K43">IF(K40&gt;$D$8, _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7), _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-((_xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-J43)/$D$8)*($D$8-K40))</f>
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="L43" s="18" cm="1">
         <f t="array" ref="L43">IF(L40&gt;$D$8, _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7), _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-((_xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-K43)/$D$8)*($D$8-L40))</f>
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="M43" s="18" cm="1">
         <f t="array" ref="M43">IF(M40&gt;$D$8, _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7), _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-((_xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-L43)/$D$8)*($D$8-M40))</f>
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="N43" s="18" cm="1">
         <f t="array" ref="N43">IF(N40&gt;$D$8, _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7), _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-((_xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-M43)/$D$8)*($D$8-N40))</f>
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="O43" s="18" cm="1">
         <f t="array" ref="O43">IF(O40&gt;$D$8, _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7), _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-((_xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-N43)/$D$8)*($D$8-O40))</f>
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="P43" s="18" cm="1">
         <f t="array" ref="P43">IF(P40&gt;$D$8, _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7), _xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-((_xlfn.SWITCH($O$7,5,$D$7,4,$E$7,3,$G$7,2,$I$7,1,$K$7)-O43)/$D$8)*($D$8-P40))</f>
-        <v>0.27</v>
-      </c>
-      <c r="R43" s="118" t="s">
+        <v>0.03</v>
+      </c>
+      <c r="R43" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="S43" s="119"/>
-      <c r="T43" s="109"/>
+      <c r="S43" s="116"/>
+      <c r="T43" s="117"/>
       <c r="U43" s="58">
         <f>'Financial Statements'!B22</f>
         <v>0</v>
       </c>
-      <c r="W43" s="118" t="s">
+      <c r="W43" s="115" t="s">
         <v>434</v>
       </c>
-      <c r="X43" s="119"/>
-      <c r="Y43" s="109"/>
+      <c r="X43" s="116"/>
+      <c r="Y43" s="117"/>
       <c r="Z43" s="89">
         <f>'Financial Statements'!B3/'Financial Statements'!B51</f>
         <v>0.99247621271226238</v>
@@ -5471,274 +5494,274 @@
       <c r="AA43" s="50"/>
     </row>
     <row r="44" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="118" t="s">
+      <c r="B44" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="119"/>
-      <c r="D44" s="109"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="117"/>
       <c r="E44" s="15">
         <f>IF(ISBLANK(D13),AVERAGE(F32:H32),D13)</f>
-        <v>0.16500000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="F44" s="15">
         <f>$E$44</f>
-        <v>0.16500000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="G44" s="15">
         <f t="shared" ref="G44:P44" si="6">$E$44</f>
-        <v>0.16500000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="H44" s="15">
         <f t="shared" si="6"/>
-        <v>0.16500000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="I44" s="15">
         <f t="shared" si="6"/>
-        <v>0.16500000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="J44" s="15">
         <f t="shared" si="6"/>
-        <v>0.16500000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="K44" s="15">
         <f t="shared" si="6"/>
-        <v>0.16500000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="L44" s="15">
         <f t="shared" si="6"/>
-        <v>0.16500000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="M44" s="15">
         <f t="shared" si="6"/>
-        <v>0.16500000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="N44" s="15">
         <f t="shared" si="6"/>
-        <v>0.16500000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="O44" s="15">
         <f t="shared" si="6"/>
-        <v>0.16500000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="P44" s="37">
         <f t="shared" si="6"/>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="R44" s="118" t="s">
+        <v>0.27</v>
+      </c>
+      <c r="R44" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="S44" s="119"/>
-      <c r="T44" s="109"/>
+      <c r="S44" s="116"/>
+      <c r="T44" s="117"/>
       <c r="U44" s="57">
-        <f>'Financial Statements'!B40</f>
-        <v>63913000000</v>
-      </c>
-      <c r="W44" s="112" t="s">
+        <f>E35</f>
+        <v>1285000000</v>
+      </c>
+      <c r="W44" s="164" t="s">
         <v>435</v>
       </c>
-      <c r="X44" s="113"/>
-      <c r="Y44" s="113"/>
-      <c r="Z44" s="114"/>
+      <c r="X44" s="165"/>
+      <c r="Y44" s="165"/>
+      <c r="Z44" s="166"/>
       <c r="AA44" s="50"/>
     </row>
     <row r="45" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="118" t="s">
+      <c r="B45" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="119"/>
-      <c r="D45" s="109"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="117"/>
       <c r="E45" s="16">
         <f>IF(E42 &gt; 0, E42 * (1-E44), E42)</f>
-        <v>97614005000</v>
+        <v>312440000</v>
       </c>
       <c r="F45" s="16">
         <f t="shared" ref="F45:O45" si="7">IF(F42 &gt; 0, IF(F42 &lt; E48, F42, F42 - (F42 - E48) * F44), F42)</f>
-        <v>95528070792.000031</v>
+        <v>251865330</v>
       </c>
       <c r="G45" s="16">
         <f t="shared" si="7"/>
-        <v>106991439287.04004</v>
+        <v>239272063.5</v>
       </c>
       <c r="H45" s="16">
         <f t="shared" si="7"/>
-        <v>119830412001.48486</v>
+        <v>227308460.32499999</v>
       </c>
       <c r="I45" s="16">
         <f t="shared" si="7"/>
-        <v>134210061441.66306</v>
+        <v>215943037.30874997</v>
       </c>
       <c r="J45" s="16">
         <f t="shared" si="7"/>
-        <v>150315268814.66263</v>
+        <v>205145885.44331247</v>
       </c>
       <c r="K45" s="16">
         <f t="shared" si="7"/>
-        <v>168906261261.66006</v>
+        <v>219030158.97011584</v>
       </c>
       <c r="L45" s="16">
         <f t="shared" si="7"/>
-        <v>185350974858.09531</v>
+        <v>231155668.57070148</v>
       </c>
       <c r="M45" s="16">
         <f t="shared" si="7"/>
-        <v>198518308112.0144</v>
+        <v>241104608.54598451</v>
       </c>
       <c r="N45" s="16">
         <f t="shared" si="7"/>
-        <v>207396046850.78363</v>
+        <v>248511342.12051713</v>
       </c>
       <c r="O45" s="16">
         <f t="shared" si="7"/>
-        <v>211212134112.83807</v>
+        <v>253083950.81553465</v>
       </c>
       <c r="P45" s="36">
         <f>P42*(1-P44)</f>
-        <v>215098437380.51425</v>
-      </c>
-      <c r="R45" s="118" t="s">
+        <v>257740695.51054049</v>
+      </c>
+      <c r="R45" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="S45" s="119"/>
-      <c r="T45" s="109"/>
+      <c r="S45" s="116"/>
+      <c r="T45" s="117"/>
       <c r="U45" s="57"/>
-      <c r="W45" s="123" t="s">
+      <c r="W45" s="148" t="s">
         <v>436</v>
       </c>
-      <c r="X45" s="124"/>
-      <c r="Y45" s="125"/>
+      <c r="X45" s="149"/>
+      <c r="Y45" s="150"/>
       <c r="Z45" s="90">
         <f>D19/('Financial Statements'!B80/Main!D23)</f>
-        <v>26.054961966088211</v>
+        <v>3.2752845217045401E-3</v>
       </c>
       <c r="AA45" s="50"/>
     </row>
     <row r="46" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="118" t="s">
+      <c r="B46" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="119"/>
-      <c r="D46" s="109"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="117"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16">
         <f>IF(F41 &gt; E41, (F41-E41) / F54, 0)</f>
-        <v>25942148571.428608</v>
+        <v>0</v>
       </c>
       <c r="G46" s="16">
         <f>(G41-F41)/G54</f>
-        <v>29055206400.000034</v>
+        <v>-319463888.8888889</v>
       </c>
       <c r="H46" s="16">
         <f t="shared" ref="H46:O46" si="8">(H41-G41)/H54</f>
-        <v>32541831168.000034</v>
+        <v>-303490694.44444442</v>
       </c>
       <c r="I46" s="16">
         <f t="shared" si="8"/>
-        <v>36446850908.160049</v>
+        <v>-288316159.72222221</v>
       </c>
       <c r="J46" s="16">
         <f t="shared" si="8"/>
-        <v>40820473017.139229</v>
+        <v>-273900351.7361111</v>
       </c>
       <c r="K46" s="16">
         <f t="shared" si="8"/>
-        <v>47120976959.09124</v>
+        <v>352213940.30449975</v>
       </c>
       <c r="L46" s="16">
         <f t="shared" si="8"/>
-        <v>41680990010.924736</v>
+        <v>307597909.7053687</v>
       </c>
       <c r="M46" s="16">
         <f t="shared" si="8"/>
-        <v>33374098162.833916</v>
+        <v>252383053.66014692</v>
       </c>
       <c r="N46" s="16">
         <f t="shared" si="8"/>
-        <v>22501634797.121304</v>
+        <v>187892784.74207667</v>
       </c>
       <c r="O46" s="16">
         <f t="shared" si="8"/>
-        <v>9672305578.1881981</v>
+        <v>115997176.43372642</v>
       </c>
       <c r="P46" s="36">
         <f>IF('Helper Data'!$I$6&gt;0,('Helper Data'!$I$6/Main!P56)*Main!P45,0)</f>
-        <v>60889403812.330185</v>
-      </c>
-      <c r="R46" s="118" t="s">
+        <v>47424287.973939449</v>
+      </c>
+      <c r="R46" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="S46" s="119"/>
-      <c r="T46" s="109"/>
+      <c r="S46" s="116"/>
+      <c r="T46" s="117"/>
       <c r="U46" s="57">
-        <f>U41-U42-U43+U44+U45</f>
-        <v>2554208581305.6895</v>
+        <f>-U42-U43+U44+U45+U41</f>
+        <v>-4248007346.5802011</v>
       </c>
       <c r="Z46" s="48"/>
     </row>
     <row r="47" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="118" t="s">
+      <c r="B47" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="119"/>
-      <c r="D47" s="109"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="117"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16">
         <f>F45-F46</f>
-        <v>69585922220.571426</v>
+        <v>251865330</v>
       </c>
       <c r="G47" s="16">
         <f t="shared" ref="G47:P47" si="9">G45-G46</f>
-        <v>77936232887.040009</v>
+        <v>558735952.38888884</v>
       </c>
       <c r="H47" s="16">
         <f t="shared" si="9"/>
-        <v>87288580833.484833</v>
+        <v>530799154.76944441</v>
       </c>
       <c r="I47" s="16">
         <f t="shared" si="9"/>
-        <v>97763210533.503006</v>
+        <v>504259197.03097218</v>
       </c>
       <c r="J47" s="16">
         <f t="shared" si="9"/>
-        <v>109494795797.52341</v>
+        <v>479046237.17942357</v>
       </c>
       <c r="K47" s="16">
         <f t="shared" si="9"/>
-        <v>121785284302.56882</v>
+        <v>-133183781.3343839</v>
       </c>
       <c r="L47" s="16">
         <f t="shared" si="9"/>
-        <v>143669984847.17056</v>
+        <v>-76442241.134667218</v>
       </c>
       <c r="M47" s="16">
         <f t="shared" si="9"/>
-        <v>165144209949.18048</v>
+        <v>-11278445.114162415</v>
       </c>
       <c r="N47" s="16">
         <f t="shared" si="9"/>
-        <v>184894412053.66232</v>
+        <v>60618557.37844047</v>
       </c>
       <c r="O47" s="16">
         <f t="shared" si="9"/>
-        <v>201539828534.64987</v>
+        <v>137086774.38180822</v>
       </c>
       <c r="P47" s="36">
         <f t="shared" si="9"/>
-        <v>154209033568.18408</v>
-      </c>
-      <c r="R47" s="118" t="s">
+        <v>210316407.53660104</v>
+      </c>
+      <c r="R47" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="S47" s="119"/>
-      <c r="T47" s="109"/>
+      <c r="S47" s="116"/>
+      <c r="T47" s="117"/>
       <c r="U47" s="58"/>
       <c r="Z47" s="48"/>
     </row>
     <row r="48" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="118" t="s">
+      <c r="B48" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="119"/>
-      <c r="D48" s="109"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="117"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16">
         <f>IF(F42 &lt; 0, E48 - F42, IF(E48 &gt; F42, E48 - F42, 0))</f>
@@ -5784,21 +5807,21 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R48" s="118" t="s">
+      <c r="R48" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="S48" s="119"/>
-      <c r="T48" s="109"/>
+      <c r="S48" s="116"/>
+      <c r="T48" s="117"/>
       <c r="U48" s="57">
         <f>U46-U47</f>
-        <v>2554208581305.6895</v>
+        <v>-4248007346.5802011</v>
       </c>
       <c r="Z48" s="48"/>
     </row>
     <row r="49" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="118"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="109"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="117"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -5811,184 +5834,184 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="38"/>
-      <c r="R49" s="118" t="s">
+      <c r="R49" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="S49" s="119"/>
-      <c r="T49" s="109"/>
+      <c r="S49" s="116"/>
+      <c r="T49" s="117"/>
       <c r="U49" s="59">
         <f>D19</f>
-        <v>165.59</v>
+        <v>0.86040000000000005</v>
       </c>
       <c r="Z49" s="48"/>
     </row>
     <row r="50" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="118" t="s">
+      <c r="B50" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="119"/>
-      <c r="D50" s="109"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="117"/>
       <c r="E50" s="3"/>
       <c r="F50" s="15" cm="1">
         <f t="array" ref="F50">_xlfn.SWITCH(O9,5,D9,4,E9,3,G9,2,I9,1,K9)</f>
-        <v>6.5000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="G50" s="15">
         <f>F50</f>
-        <v>6.5000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H50" s="15">
         <f t="shared" ref="H50:P50" si="11">G50</f>
-        <v>6.5000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I50" s="15">
         <f t="shared" si="11"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="J50" s="15">
         <f t="shared" si="11"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="K50" s="15">
         <f t="shared" si="11"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L50" s="15">
         <f t="shared" si="11"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="M50" s="15">
         <f t="shared" si="11"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="N50" s="15">
         <f t="shared" si="11"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="O50" s="15">
         <f t="shared" si="11"/>
-        <v>6.5000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="P50" s="15">
         <f t="shared" si="11"/>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="R50" s="133" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="R50" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="S50" s="134"/>
-      <c r="T50" s="135"/>
+      <c r="S50" s="142"/>
+      <c r="T50" s="143"/>
       <c r="U50" s="66">
         <f>IF(U48/D23&lt;0,0,U48/D23)</f>
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="48"/>
     </row>
     <row r="51" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="118" t="s">
+      <c r="B51" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="119"/>
-      <c r="D51" s="109"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="117"/>
       <c r="E51" s="3"/>
       <c r="F51" s="25">
         <f>1/(1+F50)</f>
-        <v>0.93896713615023475</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="G51" s="25">
         <f>F51*1/(1+G50)</f>
-        <v>0.88165928277017347</v>
+        <v>0.82644628099173545</v>
       </c>
       <c r="H51" s="25">
         <f t="shared" ref="H51:O51" si="12">G51*1/(1+H50)</f>
-        <v>0.82784909180297983</v>
+        <v>0.75131480090157765</v>
       </c>
       <c r="I51" s="25">
         <f t="shared" si="12"/>
-        <v>0.77732309089481677</v>
+        <v>0.68301345536507052</v>
       </c>
       <c r="J51" s="25">
         <f t="shared" si="12"/>
-        <v>0.7298808365209547</v>
+        <v>0.62092132305915493</v>
       </c>
       <c r="K51" s="25">
         <f t="shared" si="12"/>
-        <v>0.68533411879901851</v>
+        <v>0.56447393005377711</v>
       </c>
       <c r="L51" s="25">
         <f t="shared" si="12"/>
-        <v>0.64350621483475923</v>
+        <v>0.51315811823070645</v>
       </c>
       <c r="M51" s="25">
         <f t="shared" si="12"/>
-        <v>0.60423118763827155</v>
+        <v>0.46650738020973309</v>
       </c>
       <c r="N51" s="25">
         <f t="shared" si="12"/>
-        <v>0.56735322782936304</v>
+        <v>0.42409761837248461</v>
       </c>
       <c r="O51" s="25">
         <f t="shared" si="12"/>
-        <v>0.53272603552052866</v>
+        <v>0.38554328942953142</v>
       </c>
       <c r="P51" s="39"/>
-      <c r="R51" s="136" t="s">
+      <c r="R51" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="S51" s="137"/>
-      <c r="T51" s="137"/>
+      <c r="S51" s="145"/>
+      <c r="T51" s="145"/>
       <c r="U51" s="65">
         <f>U50/U49-1</f>
-        <v>-2.5095116717678168E-2</v>
+        <v>-1</v>
       </c>
       <c r="Z51" s="48"/>
     </row>
     <row r="52" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="118" t="s">
+      <c r="B52" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="119"/>
-      <c r="D52" s="109"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="3"/>
       <c r="F52" s="16">
         <f>F47*F51</f>
-        <v>65338894103.822937</v>
+        <v>228968481.81818181</v>
       </c>
       <c r="G52" s="16">
         <f t="shared" ref="G52:O52" si="13">G47*G51</f>
-        <v>68713203188.996902</v>
+        <v>461765249.90817255</v>
       </c>
       <c r="H52" s="16">
         <f t="shared" si="13"/>
-        <v>72261772367.771408</v>
+        <v>398797261.28433084</v>
       </c>
       <c r="I52" s="16">
         <f t="shared" si="13"/>
-        <v>75993600987.703262</v>
+        <v>344415816.56374019</v>
       </c>
       <c r="J52" s="16">
         <f t="shared" si="13"/>
-        <v>79918153151.387497</v>
+        <v>297450023.39595741</v>
       </c>
       <c r="K52" s="16">
         <f t="shared" si="13"/>
-        <v>83463610500.188934</v>
+        <v>-75178772.469242573</v>
       </c>
       <c r="L52" s="16">
         <f t="shared" si="13"/>
-        <v>92452528134.369949</v>
+        <v>-39226956.614003733</v>
       </c>
       <c r="M52" s="16">
         <f t="shared" si="13"/>
-        <v>99785282109.177383</v>
+        <v>-5261477.8830471728</v>
       </c>
       <c r="N52" s="16">
         <f t="shared" si="13"/>
-        <v>104900441486.25761</v>
+        <v>25708185.813372407</v>
       </c>
       <c r="O52" s="16">
         <f t="shared" si="13"/>
-        <v>107365513854.75114</v>
+        <v>52852885.932446361</v>
       </c>
       <c r="P52" s="36"/>
       <c r="R52" s="64"/>
@@ -5998,9 +6021,9 @@
       <c r="Z52" s="48"/>
     </row>
     <row r="53" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="118"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="109"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="117"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -6026,400 +6049,400 @@
       <c r="Z53" s="77"/>
     </row>
     <row r="54" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="118" t="s">
+      <c r="B54" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="119"/>
-      <c r="D54" s="109"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="3"/>
       <c r="F54" s="19">
         <f>IF(ISBLANK(D12),AVERAGE(F37:H37),D12)</f>
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G54" s="19">
         <f>$F$54</f>
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H54" s="19">
         <f t="shared" ref="H54:O54" si="14">$F$54</f>
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="I54" s="19">
         <f t="shared" si="14"/>
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J54" s="19">
         <f t="shared" si="14"/>
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K54" s="19">
         <f t="shared" si="14"/>
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L54" s="19">
         <f t="shared" si="14"/>
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="M54" s="19">
         <f t="shared" si="14"/>
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N54" s="19">
         <f t="shared" si="14"/>
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O54" s="19">
         <f t="shared" si="14"/>
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P54" s="40"/>
       <c r="R54" s="49"/>
-      <c r="S54" s="140" t="s">
+      <c r="S54" s="151" t="s">
         <v>437</v>
       </c>
-      <c r="T54" s="140"/>
-      <c r="U54" s="140"/>
-      <c r="V54" s="140"/>
-      <c r="W54" s="140"/>
-      <c r="X54" s="140"/>
-      <c r="Y54" s="140"/>
-      <c r="Z54" s="141"/>
+      <c r="T54" s="151"/>
+      <c r="U54" s="151"/>
+      <c r="V54" s="151"/>
+      <c r="W54" s="151"/>
+      <c r="X54" s="151"/>
+      <c r="Y54" s="151"/>
+      <c r="Z54" s="152"/>
     </row>
     <row r="55" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="118" t="s">
+      <c r="B55" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="119"/>
-      <c r="D55" s="109"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="117"/>
       <c r="E55" s="16">
         <f>'Helper Data'!I21</f>
         <v>130817000000</v>
       </c>
       <c r="F55" s="16">
         <f>E55+F46</f>
-        <v>156759148571.42862</v>
+        <v>130817000000</v>
       </c>
       <c r="G55" s="16">
         <f t="shared" ref="G55:O55" si="15">F55+G46</f>
-        <v>185814354971.42865</v>
+        <v>130497536111.11111</v>
       </c>
       <c r="H55" s="16">
         <f t="shared" si="15"/>
-        <v>218356186139.42868</v>
+        <v>130194045416.66667</v>
       </c>
       <c r="I55" s="16">
         <f t="shared" si="15"/>
-        <v>254803037047.58875</v>
+        <v>129905729256.94444</v>
       </c>
       <c r="J55" s="16">
         <f t="shared" si="15"/>
-        <v>295623510064.72797</v>
+        <v>129631828905.20833</v>
       </c>
       <c r="K55" s="16">
         <f t="shared" si="15"/>
-        <v>342744487023.81921</v>
+        <v>129984042845.51283</v>
       </c>
       <c r="L55" s="16">
         <f t="shared" si="15"/>
-        <v>384425477034.74396</v>
+        <v>130291640755.2182</v>
       </c>
       <c r="M55" s="16">
         <f t="shared" si="15"/>
-        <v>417799575197.57788</v>
+        <v>130544023808.87834</v>
       </c>
       <c r="N55" s="16">
         <f t="shared" si="15"/>
-        <v>440301209994.69916</v>
+        <v>130731916593.62042</v>
       </c>
       <c r="O55" s="16">
         <f t="shared" si="15"/>
-        <v>449973515572.88733</v>
+        <v>130847913770.05415</v>
       </c>
       <c r="P55" s="36"/>
-      <c r="R55" s="138" t="s">
+      <c r="R55" s="146" t="s">
         <v>17</v>
       </c>
       <c r="S55" s="72">
         <f>U50</f>
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="T55" s="70">
         <f>W55*0.6</f>
-        <v>5.3999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="U55" s="70">
         <f>W55*0.75</f>
-        <v>6.7500000000000004E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="V55" s="70">
         <f>W55*0.9</f>
-        <v>8.1000000000000003E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="W55" s="70">
         <f>G6</f>
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="X55" s="70">
         <f>W55*1.1</f>
-        <v>9.9000000000000005E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Y55" s="70">
         <f>W55*1.25</f>
-        <v>0.11249999999999999</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="Z55" s="78">
         <f>W55*1.4</f>
-        <v>0.126</v>
+        <v>4.1999999999999996E-2</v>
       </c>
     </row>
     <row r="56" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="123" t="s">
+      <c r="B56" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="124"/>
-      <c r="D56" s="125"/>
+      <c r="C56" s="149"/>
+      <c r="D56" s="150"/>
       <c r="E56" s="26">
         <f>E45/E55</f>
-        <v>0.74618746034536798</v>
+        <v>2.3883745996315462E-3</v>
       </c>
       <c r="F56" s="26">
         <f t="shared" ref="F56:O56" si="16">F45/F55</f>
-        <v>0.60939391201446758</v>
+        <v>1.9253256839707378E-3</v>
       </c>
       <c r="G56" s="26">
         <f t="shared" si="16"/>
-        <v>0.57579749047640238</v>
+        <v>1.8335370201646847E-3</v>
       </c>
       <c r="H56" s="26">
         <f t="shared" si="16"/>
-        <v>0.54878414081187799</v>
+        <v>1.745920557253852E-3</v>
       </c>
       <c r="I56" s="26">
         <f t="shared" si="16"/>
-        <v>0.52672080755692507</v>
+        <v>1.6623057238809673E-3</v>
       </c>
       <c r="J56" s="26">
         <f t="shared" si="16"/>
-        <v>0.5084685882450638</v>
+        <v>1.5825271245175662E-3</v>
       </c>
       <c r="K56" s="26">
         <f t="shared" si="16"/>
-        <v>0.49280518770217835</v>
+        <v>1.6850542126192758E-3</v>
       </c>
       <c r="L56" s="26">
         <f t="shared" si="16"/>
-        <v>0.48215060117189756</v>
+        <v>1.7741404377966102E-3</v>
       </c>
       <c r="M56" s="26">
         <f t="shared" si="16"/>
-        <v>0.47515201043020416</v>
+        <v>1.8469218391718282E-3</v>
       </c>
       <c r="N56" s="26">
         <f t="shared" si="16"/>
-        <v>0.47103219828371695</v>
+        <v>1.900923267980638E-3</v>
       </c>
       <c r="O56" s="26">
         <f t="shared" si="16"/>
-        <v>0.46938792351796899</v>
+        <v>1.9341840731239494E-3</v>
       </c>
       <c r="P56" s="41">
         <f>O50</f>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="R56" s="138"/>
+        <v>0.1</v>
+      </c>
+      <c r="R56" s="146"/>
       <c r="S56" s="69">
         <f>S59*0.6</f>
-        <v>0.15</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="T56" s="68">
         <f t="dataTable" ref="T56:Z62" dt2D="1" dtr="1" r1="G6" r2="G7" ca="1"/>
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="U56" s="68">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="V56" s="68">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="W56" s="68">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="X56" s="68">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="68">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="79">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="R57" s="138"/>
+      <c r="R57" s="146"/>
       <c r="S57" s="69">
         <f>S59*0.75</f>
-        <v>0.1875</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="T57" s="68">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="U57" s="71">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="V57" s="71">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="W57" s="71">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="X57" s="71">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="71">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="79">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="R58" s="138"/>
+      <c r="R58" s="146"/>
       <c r="S58" s="69">
         <f>S59*0.9</f>
-        <v>0.22500000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="T58" s="68">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="U58" s="71">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="V58" s="80">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="W58" s="80">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="X58" s="80">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="71">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="79">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="R59" s="138"/>
+      <c r="R59" s="146"/>
       <c r="S59" s="69">
         <f>G7</f>
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="T59" s="68">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="U59" s="71">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="V59" s="80">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="W59" s="81">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="X59" s="80">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="71">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="79">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="R60" s="138"/>
+      <c r="R60" s="146"/>
       <c r="S60" s="69">
         <f>S59*1.1</f>
-        <v>0.27500000000000002</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="T60" s="68">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="U60" s="71">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="V60" s="80">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="W60" s="80">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="X60" s="80">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="71">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="79">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="R61" s="138"/>
+      <c r="R61" s="146"/>
       <c r="S61" s="69">
         <f>S59*1.25</f>
-        <v>0.3125</v>
+        <v>0.11249999999999999</v>
       </c>
       <c r="T61" s="68">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="U61" s="71">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="V61" s="71">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="W61" s="71">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="X61" s="71">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="71">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="79">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="R62" s="139"/>
+      <c r="R62" s="147"/>
       <c r="S62" s="82">
         <f>S59*1.4</f>
-        <v>0.35</v>
+        <v>0.126</v>
       </c>
       <c r="T62" s="83">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="U62" s="83">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="V62" s="83">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="W62" s="83">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="X62" s="83">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="83">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="84">
-        <v>161.43449962271967</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6429,71 +6452,43 @@
       <inputCells r="D7" val="$E$38" numFmtId="170"/>
     </scenario>
   </scenarios>
-  <mergeCells count="124">
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F16:L24"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="R51:T51"/>
-    <mergeCell ref="R55:R62"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="S54:Z54"/>
-    <mergeCell ref="R49:T49"/>
+  <mergeCells count="123">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="W36:Z36"/>
+    <mergeCell ref="W41:Z41"/>
+    <mergeCell ref="W44:Z44"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="W39:Y39"/>
     <mergeCell ref="W32:Y32"/>
     <mergeCell ref="W34:Y34"/>
     <mergeCell ref="B2:C2"/>
@@ -6518,42 +6513,69 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="W36:Z36"/>
-    <mergeCell ref="W41:Z41"/>
-    <mergeCell ref="W44:Z44"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="W43:Y43"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="R55:R62"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="S54:Z54"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F16:L24"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="R30:T30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -13812,7 +13834,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -13835,14 +13857,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="165"/>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="H1" s="165" t="s">
+      <c r="A1" s="169"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="H1" s="169" t="s">
         <v>173</v>
       </c>
-      <c r="I1" s="165"/>
+      <c r="I1" s="169"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -13891,7 +13913,7 @@
       </c>
       <c r="I3" s="91">
         <f>Main!D23</f>
-        <v>15821950000</v>
+        <v>382782700</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>175</v>
@@ -13924,7 +13946,7 @@
       </c>
       <c r="I4" s="92">
         <f>Main!D19</f>
-        <v>165.59</v>
+        <v>0.86040000000000005</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>177</v>
@@ -14219,7 +14241,7 @@
       </c>
       <c r="K14" s="91">
         <f>I5*(1+(1-I17)*(L16/K16))</f>
-        <v>0.89000001587873212</v>
+        <v>0.89012631567016354</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -14293,7 +14315,7 @@
       </c>
       <c r="K16" s="92">
         <f>I3*I4+K13</f>
-        <v>2619956700500</v>
+        <v>329346235.08000004</v>
       </c>
       <c r="L16" s="92">
         <f>K11+K12</f>
@@ -14305,7 +14327,7 @@
       </c>
       <c r="N16" s="92">
         <f>SUM(K16:M16)</f>
-        <v>2619956764532</v>
+        <v>329410267.08000004</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -14338,11 +14360,11 @@
       </c>
       <c r="K17" s="6">
         <f>K16/N16</f>
-        <v>0.99999997555990205</v>
+        <v>0.99980561625911779</v>
       </c>
       <c r="L17" s="6">
         <f>L16/N16</f>
-        <v>2.4440097969112084E-8</v>
+        <v>1.9438374088215439E-4</v>
       </c>
       <c r="M17" s="6">
         <f>M16/N16</f>
@@ -14359,7 +14381,7 @@
       </c>
       <c r="K18" s="6">
         <f>I6+K14*I7</f>
-        <v>6.0408000749476158E-2</v>
+        <v>6.0413962099631714E-2</v>
       </c>
       <c r="L18" s="6">
         <f>I16*(1-I17)</f>
@@ -14371,7 +14393,7 @@
       </c>
       <c r="N18" s="6">
         <f>K17*K18+L17*L18+M17*M18</f>
-        <v>6.0407999601378097E-2</v>
+        <v>6.0404829570084799E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
